--- a/000이형주/2022-01-31 CFXT  Bitmart 거래내역 1258911개 이형주70만개.xlsx
+++ b/000이형주/2022-01-31 CFXT  Bitmart 거래내역 1258911개 이형주70만개.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20415" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20415" windowHeight="7785" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="cfxt" sheetId="5" r:id="rId1"/>
-    <sheet name="체결" sheetId="1" r:id="rId2"/>
-    <sheet name="거래" sheetId="2" r:id="rId3"/>
-    <sheet name="입금" sheetId="3" r:id="rId4"/>
-    <sheet name="출금" sheetId="4" r:id="rId5"/>
+    <sheet name="체결" sheetId="1" r:id="rId1"/>
+    <sheet name="거래" sheetId="2" r:id="rId2"/>
+    <sheet name="입금" sheetId="3" r:id="rId3"/>
+    <sheet name="출금" sheetId="4" r:id="rId4"/>
+    <sheet name="cfxt" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="373">
   <si>
     <t>체결내역</t>
   </si>
@@ -2493,6 +2493,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>????</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2502,9 +2506,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;-&quot;m&quot;-&quot;d;@"/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;-&quot;m&quot;-&quot;d;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2718,14 +2722,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2806,7 +2802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2903,6 +2899,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2948,7 +2947,7 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -2962,12 +2961,6 @@
     </xf>
     <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3087,14 +3080,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -3106,7 +3099,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3114,8 +3107,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1790700" y="2305050"/>
-          <a:ext cx="7315200" cy="1276350"/>
+          <a:off x="485775" y="2305050"/>
+          <a:ext cx="8353425" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3413,212 +3406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12.125" style="47" customWidth="1"/>
-    <col min="2" max="2" width="13" style="48" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="48" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="48"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="C1" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="47">
-        <v>44438</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="C2" s="49">
-        <v>899310</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49">
-        <f>C2</f>
-        <v>899310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="47">
-        <v>44582</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49">
-        <v>150000</v>
-      </c>
-      <c r="E3" s="49">
-        <f t="shared" ref="E3:E10" si="0">E2+C3-D3</f>
-        <v>749310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="47">
-        <v>44582</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49">
-        <v>49000</v>
-      </c>
-      <c r="E4" s="50">
-        <f t="shared" si="0"/>
-        <v>700310</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="47">
-        <v>44590</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="C5" s="48">
-        <v>210000</v>
-      </c>
-      <c r="E5" s="48">
-        <f t="shared" si="0"/>
-        <v>910310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="47">
-        <v>44590</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="C6" s="48">
-        <v>80000</v>
-      </c>
-      <c r="E6" s="48">
-        <f t="shared" si="0"/>
-        <v>990310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="47">
-        <v>44590</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" s="48">
-        <v>399</v>
-      </c>
-      <c r="E7" s="48">
-        <f t="shared" si="0"/>
-        <v>990709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="47">
-        <v>44590</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="C8" s="48">
-        <v>50000</v>
-      </c>
-      <c r="E8" s="48">
-        <f t="shared" si="0"/>
-        <v>1040709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="47">
-        <v>44590</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="C9" s="48">
-        <v>32000</v>
-      </c>
-      <c r="E9" s="48">
-        <f t="shared" si="0"/>
-        <v>1072709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="47">
-        <v>44591</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="C10" s="48">
-        <v>186202</v>
-      </c>
-      <c r="E10" s="50">
-        <f t="shared" si="0"/>
-        <v>1258911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="C11" s="50">
-        <f>SUM(C5:C10)</f>
-        <v>558601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="E12" s="48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="E13" s="48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="G14" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3997,7 +3789,7 @@
       <c r="I20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="40">
         <v>1098.8699999999999</v>
       </c>
     </row>
@@ -4031,7 +3823,7 @@
         <f>SUM(K11:K20)</f>
         <v>1969.8912999999998</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="40" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4061,7 +3853,7 @@
       <c r="I22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="40" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4091,7 +3883,7 @@
       <c r="I23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="40" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4310,7 +4102,7 @@
       <c r="I31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="40" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4340,7 +4132,7 @@
       <c r="I32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="40" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4358,7 +4150,7 @@
       <c r="E33" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="41" t="s">
         <v>346</v>
       </c>
       <c r="G33" s="10" t="s">
@@ -4385,7 +4177,7 @@
       <c r="E34" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="41" t="s">
         <v>347</v>
       </c>
       <c r="G34" s="10" t="s">
@@ -4397,7 +4189,7 @@
       <c r="I34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="41" t="s">
+      <c r="K34" s="42" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4407,11 +4199,11 @@
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="40"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="K35" s="41"/>
+      <c r="K35" s="42"/>
     </row>
     <row r="36" spans="1:11" ht="17.25" thickBot="1">
       <c r="A36" s="8"/>
@@ -4419,11 +4211,11 @@
       <c r="C36" s="10"/>
       <c r="D36" s="12"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="40"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
-      <c r="K36" s="41"/>
+      <c r="K36" s="42"/>
     </row>
     <row r="37" spans="1:11" ht="17.25" thickBot="1">
       <c r="A37" s="8"/>
@@ -4431,11 +4223,11 @@
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="40"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="K37" s="41"/>
+      <c r="K37" s="42"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1">
       <c r="A38" s="8"/>
@@ -4443,11 +4235,11 @@
       <c r="C38" s="10"/>
       <c r="D38" s="12"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="40"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="K38" s="41"/>
+      <c r="K38" s="42"/>
     </row>
     <row r="39" spans="1:11" ht="17.25" thickBot="1">
       <c r="A39" s="8"/>
@@ -4455,11 +4247,11 @@
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="40"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
-      <c r="K39" s="41"/>
+      <c r="K39" s="42"/>
     </row>
     <row r="40" spans="1:11" ht="17.25" thickBot="1">
       <c r="A40" s="8"/>
@@ -4467,11 +4259,11 @@
       <c r="C40" s="10"/>
       <c r="D40" s="12"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="40"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-      <c r="K40" s="41"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1">
       <c r="A41" s="8"/>
@@ -4487,7 +4279,7 @@
       <c r="E41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="43" t="s">
         <v>349</v>
       </c>
       <c r="G41" s="10" t="s">
@@ -4514,7 +4306,7 @@
       <c r="E42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="43" t="s">
         <v>350</v>
       </c>
       <c r="G42" s="10" t="s">
@@ -4541,7 +4333,7 @@
       <c r="E43" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="43" t="s">
         <v>351</v>
       </c>
       <c r="G43" s="10" t="s">
@@ -4660,7 +4452,7 @@
       <c r="I47" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="43" t="s">
+      <c r="K47" s="44" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4682,12 +4474,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
@@ -5380,7 +5172,7 @@
       <c r="G36" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="40" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5429,7 +5221,7 @@
       <c r="G38" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="40" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5455,7 +5247,7 @@
       <c r="G39" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="40" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6083,7 +5875,7 @@
       <c r="G68" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="I68" s="44" t="s">
+      <c r="I68" s="45" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6178,7 +5970,7 @@
       <c r="G72" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="I72" s="39" t="s">
+      <c r="I72" s="40" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6204,12 +5996,12 @@
       <c r="G73" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="I73" s="39" t="s">
+      <c r="I73" s="40" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="46" t="s">
         <v>104</v>
       </c>
       <c r="B74" s="19">
@@ -6221,7 +6013,7 @@
       <c r="D74" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="46" t="s">
+      <c r="E74" s="47" t="s">
         <v>272</v>
       </c>
       <c r="F74" s="18" t="s">
@@ -6253,7 +6045,7 @@
       <c r="G75" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="I75" s="39" t="s">
+      <c r="I75" s="40" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6265,7 +6057,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
-      <c r="I76" s="39"/>
+      <c r="I76" s="40"/>
     </row>
     <row r="77" spans="1:9" ht="17.25" thickBot="1">
       <c r="A77" s="17"/>
@@ -6275,7 +6067,7 @@
       <c r="E77" s="17"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
-      <c r="I77" s="39"/>
+      <c r="I77" s="40"/>
     </row>
     <row r="78" spans="1:9" ht="17.25" thickBot="1">
       <c r="A78" s="17"/>
@@ -6285,7 +6077,7 @@
       <c r="E78" s="17"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
-      <c r="I78" s="39"/>
+      <c r="I78" s="40"/>
     </row>
     <row r="79" spans="1:9" ht="17.25" thickBot="1">
       <c r="A79" s="17"/>
@@ -6295,7 +6087,7 @@
       <c r="E79" s="17"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
-      <c r="I79" s="39"/>
+      <c r="I79" s="40"/>
     </row>
     <row r="80" spans="1:9" ht="17.25" thickBot="1">
       <c r="A80" s="17" t="s">
@@ -6319,7 +6111,7 @@
       <c r="G80" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="I80" s="39" t="s">
+      <c r="I80" s="40" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6575,7 +6367,7 @@
       <c r="G91" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="I91" s="39" t="s">
+      <c r="I91" s="40" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6591,7 +6383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -6660,13 +6452,13 @@
       <c r="B6" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="34">
         <v>44591.842418981483</v>
       </c>
       <c r="D6" s="25">
         <v>44591.845914351848</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="38">
         <v>0.75010432000000005</v>
       </c>
       <c r="F6" s="23">
@@ -6686,15 +6478,15 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="22">
@@ -6703,13 +6495,13 @@
       <c r="B8" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="34">
         <v>44590.852719907409</v>
       </c>
       <c r="D8" s="25">
         <v>44590.856006944443</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="38">
         <v>1.5</v>
       </c>
       <c r="F8" s="23">
@@ -6729,15 +6521,15 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="22">
@@ -6746,7 +6538,7 @@
       <c r="B10" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="35">
         <v>44438.740659722222</v>
       </c>
       <c r="D10" s="25">
@@ -6767,20 +6559,20 @@
       <c r="I10" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="39" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="22">
@@ -6789,7 +6581,7 @@
       <c r="B12" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="36">
         <v>44398.824270833335</v>
       </c>
       <c r="D12" s="25">
@@ -6815,15 +6607,15 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="22">
@@ -6853,7 +6645,7 @@
       <c r="I14" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="39" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6869,12 +6661,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6937,7 +6729,7 @@
       <c r="A5" s="22">
         <v>11684141</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>318</v>
       </c>
       <c r="C5" s="24">
@@ -6966,30 +6758,30 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="22">
         <v>10396700</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="24">
         <v>44511.236307870371</v>
       </c>
       <c r="D7" s="25">
         <v>44511.236805555556</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="33">
         <v>3825.89</v>
       </c>
       <c r="F7" s="23">
@@ -7009,15 +6801,15 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="22">
@@ -7052,15 +6844,15 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="22">
@@ -7075,7 +6867,7 @@
       <c r="D11" s="25">
         <v>44409.786296296297</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="37">
         <v>899803</v>
       </c>
       <c r="F11" s="23">
@@ -7098,15 +6890,15 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="22">
@@ -7141,15 +6933,15 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="22">
@@ -7164,7 +6956,7 @@
       <c r="D15" s="25">
         <v>44399.588692129626</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="37">
         <v>749847</v>
       </c>
       <c r="F15" s="23">
@@ -7187,15 +6979,15 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="22">
@@ -7210,7 +7002,7 @@
       <c r="D17" s="25">
         <v>44399.497175925928</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="37">
         <v>499867</v>
       </c>
       <c r="F17" s="23">
@@ -7233,15 +7025,15 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="22">
@@ -7256,7 +7048,7 @@
       <c r="D19" s="25">
         <v>44399.498032407406</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="37">
         <v>399861</v>
       </c>
       <c r="F19" s="23">
@@ -7324,6 +7116,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="13" style="49" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="49" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="C1" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="48">
+        <v>44438</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="50">
+        <v>899310</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50">
+        <f>C2</f>
+        <v>899310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="48">
+        <v>44582</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="50">
+        <f t="shared" ref="E3:E10" si="0">E2+C3-D3</f>
+        <v>749310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="48">
+        <v>44582</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50">
+        <v>49000</v>
+      </c>
+      <c r="E4" s="51">
+        <f t="shared" si="0"/>
+        <v>700310</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="48">
+        <v>44590</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="49">
+        <v>210000</v>
+      </c>
+      <c r="E5" s="49">
+        <f t="shared" si="0"/>
+        <v>910310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="48">
+        <v>44590</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="49">
+        <v>80000</v>
+      </c>
+      <c r="E6" s="49">
+        <f t="shared" si="0"/>
+        <v>990310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="48">
+        <v>44590</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="49">
+        <v>399</v>
+      </c>
+      <c r="E7" s="49">
+        <f t="shared" si="0"/>
+        <v>990709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="48">
+        <v>44590</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="49">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="49">
+        <f t="shared" si="0"/>
+        <v>1040709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="48">
+        <v>44590</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="49">
+        <v>32000</v>
+      </c>
+      <c r="E9" s="49">
+        <f t="shared" si="0"/>
+        <v>1072709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="48">
+        <v>44591</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="49">
+        <v>186202</v>
+      </c>
+      <c r="E10" s="51">
+        <f t="shared" si="0"/>
+        <v>1258911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="51">
+        <f>SUM(C5:C10)</f>
+        <v>558601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="E12" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="E13" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="G14" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
